--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
+    <sheet name="Desorden" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Coste total</t>
   </si>
@@ -47,19 +48,55 @@
     <t>Horas de captura</t>
   </si>
   <si>
-    <t>Necesidades de almacenamiento (TB)</t>
-  </si>
-  <si>
     <t>Samsung 850 Pro</t>
   </si>
   <si>
     <t>Coste unitario (E)</t>
   </si>
   <si>
-    <t>Mínimo para tasa</t>
-  </si>
-  <si>
-    <t>Mínimo Almacenamiento</t>
+    <t>Discos mínimos (Almacenamiento)</t>
+  </si>
+  <si>
+    <t>Discos mínimos (Tasa)</t>
+  </si>
+  <si>
+    <t>Almacenamiento (TB)</t>
+  </si>
+  <si>
+    <t>Mecánico Mágico</t>
+  </si>
+  <si>
+    <t>Mpps</t>
+  </si>
+  <si>
+    <t>% Desorden</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Tasa (Gbps)</t>
+  </si>
+  <si>
+    <t>% 40 Gbps</t>
+  </si>
+  <si>
+    <t>N. Desorden</t>
+  </si>
+  <si>
+    <t>Paquetes</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>StdDev</t>
+  </si>
+  <si>
+    <t>2 hilos</t>
+  </si>
+  <si>
+    <t>4 hilos</t>
   </si>
 </sst>
 </file>
@@ -69,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,13 +114,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,14 +144,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -391,8 +456,8 @@
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
@@ -403,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="D1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -416,11 +481,11 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <f>(D1/(8 * 1024)) * 60 * 60 * D2</f>
-        <v>421.875</v>
+        <v>210.9375</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -434,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -451,7 +516,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>520</v>
@@ -462,16 +527,1322 @@
       <c r="E6">
         <v>700</v>
       </c>
+      <c r="F6">
+        <f>ROUNDUP($D$3/D6, 0)</f>
+        <v>211</v>
+      </c>
+      <c r="G6">
+        <f>ROUNDUP($D$1 / (C6 * 8 / 1024), 0)</f>
+        <v>5</v>
+      </c>
       <c r="H6">
-        <f>ROUNDUP(D3 / D6, 0)</f>
-        <v>422</v>
+        <f>MAX(F6,G6)</f>
+        <v>211</v>
       </c>
       <c r="I6" s="1">
         <f>E6*H6</f>
-        <v>295400</v>
+        <v>147700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <f>ROUNDUP($D$3/D7, 0)</f>
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <f>ROUNDUP($D$1 / (C7 * 8 / 1024), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <f>MAX(F7,G7)</f>
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <f>E7*H7</f>
+        <v>16200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16:T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>300</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>600</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>C$3*$B5 * 8 / 1000</f>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5/40</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/$C$1</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G5">
+        <f>G$3*$B5 * 8 / 1000</f>
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="3">
+        <f>G5/40</f>
+        <v>0.02</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f>I5/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>K$3*$B5 * 8 / 1000</f>
+        <v>2.4</v>
+      </c>
+      <c r="L5" s="3">
+        <f>K5/40</f>
+        <v>0.06</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <f>M5/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>O$3*$B5 * 8 / 1000</f>
+        <v>4.8</v>
+      </c>
+      <c r="P5" s="3">
+        <f>O5/40</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f>Q5/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <f>AVERAGE(F5,J5,N5,R5)</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="T5" s="2">
+        <f>_xlfn.STDEV.P(F5,J5,N5,R5)</f>
+        <v>4.3301270189221935E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>C$3*$B6 * 8 / 1000</f>
+        <v>2.56</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D12" si="0">C6/40</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>452</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F11" si="1">E6/$C$1</f>
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <f>G$3*$B6 * 8 / 1000</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H12" si="2">G6/40</f>
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J11" si="3">I6/$C$1</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="K6">
+        <f>K$3*$B6 * 8 / 1000</f>
+        <v>12</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6:L12" si="4">K6/40</f>
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>210</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N11" si="5">M6/$C$1</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O6">
+        <f>O$3*$B6 * 8 / 1000</f>
+        <v>24</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P12" si="6">O6/40</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:R11" si="7">Q6/$C$1</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S6" s="2">
+        <f>AVERAGE(F6,J6,N6,R6)</f>
+        <v>1.8024999999999999E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <f>_xlfn.STDEV.P(F6,J6,N6,R6)</f>
+        <v>1.7349693801332632E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$B7 * 8 / 1000</f>
+        <v>5.12</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.128</v>
+      </c>
+      <c r="E7">
+        <v>1782</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1782</v>
+      </c>
+      <c r="G7">
+        <f>G$3*$B7 * 8 / 1000</f>
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>1321</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1321</v>
+      </c>
+      <c r="K7">
+        <f>K$3*$B7 * 8 / 1000</f>
+        <v>24</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="M7">
+        <v>900</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="O7" s="6">
+        <f>O$3*$B7 * 8 / 1000</f>
+        <v>48</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f>AVERAGE(F7,J7,N7)</f>
+        <v>0.13343333333333332</v>
+      </c>
+      <c r="T7" s="2">
+        <f>_xlfn.STDEV.P(F7,J7,N7)</f>
+        <v>3.6019840211873377E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$B8 * 8 / 1000</f>
+        <v>7.68</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8" si="8">C8/40</f>
+        <v>0.192</v>
+      </c>
+      <c r="E8">
+        <v>2272</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="G8">
+        <f>G$3*$B8 * 8 / 1000</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8" si="9">G8/40</f>
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>2210</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.221</v>
+      </c>
+      <c r="K8">
+        <f>K$3*$B8 * 8 / 1000</f>
+        <v>36</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" ref="L8" si="10">K8/40</f>
+        <v>0.9</v>
+      </c>
+      <c r="M8">
+        <v>1230</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.123</v>
+      </c>
+      <c r="O8" s="6">
+        <f>O$3*$B8 * 8 / 1000</f>
+        <v>72</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" ref="P8" si="11">O8/40</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <f>AVERAGE(N8,J8,F8)</f>
+        <v>0.19039999999999999</v>
+      </c>
+      <c r="T8" s="2">
+        <f>_xlfn.STDEV.P(F8,J8,N8)</f>
+        <v>4.7726163334869801E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <f>C$3*$B9 * 8 / 1000</f>
+        <v>10.24</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E9">
+        <v>2832</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="G9">
+        <f>G$3*$B9 * 8 / 1000</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>2712</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2712</v>
+      </c>
+      <c r="K9" s="6">
+        <f>K$3*$B9 * 8 / 1000</f>
+        <v>48</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f>O$3*$B9 * 8 / 1000</f>
+        <v>96</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="6"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <f>AVERAGE(J9,F9)</f>
+        <v>0.2772</v>
+      </c>
+      <c r="T9" s="2">
+        <f>_xlfn.STDEV.P(F9,J9)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f>C$3*$B10 * 8 / 1000</f>
+        <v>12.8</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="E10">
+        <v>3032</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="G10">
+        <f>G$3*$B10 * 8 / 1000</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>2912</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="K10" s="6">
+        <f>K$3*$B10 * 8 / 1000</f>
+        <v>60</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <f>O$3*$B10 * 8 / 1000</f>
+        <v>120</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" ref="S10:T12" si="12">AVERAGE(J10,F10)</f>
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" ref="T10:T12" si="13">_xlfn.STDEV.P(F10,J10)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f>C$3*$B11 * 8 / 1000</f>
+        <v>15.36</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E11">
+        <v>3111</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="G11">
+        <f>G$3*$B11 * 8 / 1000</f>
+        <v>24</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>3012</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="K11" s="6">
+        <f>K$3*$B11 * 8 / 1000</f>
+        <v>72</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f>O$3*$B11 * 8 / 1000</f>
+        <v>144</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="6"/>
+        <v>3.6</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="12"/>
+        <v>0.30615000000000003</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="13"/>
+        <v>4.9499999999999822E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>300</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <v>600</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>C$3*$B16 * 8 / 1000</f>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16/40</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>240</v>
+      </c>
+      <c r="F16" s="2">
+        <f>E16/$C$1</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="G16">
+        <f>G$3*$B16 * 8 / 1000</f>
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="3">
+        <f>G16/40</f>
+        <v>0.02</v>
+      </c>
+      <c r="I16">
+        <v>627</v>
+      </c>
+      <c r="J16" s="2">
+        <f>I16/$C$1</f>
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="K16">
+        <f>K$3*$B16 * 8 / 1000</f>
+        <v>2.4</v>
+      </c>
+      <c r="L16" s="3">
+        <f>K16/40</f>
+        <v>0.06</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f>M16/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>O$3*$B16 * 8 / 1000</f>
+        <v>4.8</v>
+      </c>
+      <c r="P16" s="3">
+        <f>O16/40</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q16">
+        <v>36</v>
+      </c>
+      <c r="R16" s="2">
+        <f>Q16/$C$1</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="S16" s="2">
+        <f>AVERAGE(F16,J16,N16,R16)</f>
+        <v>2.2575000000000001E-2</v>
+      </c>
+      <c r="T16" s="2">
+        <f>_xlfn.STDEV.P(F16,J16,N16,R16)</f>
+        <v>2.4908469944980565E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f>C$3*$B17 * 8 / 1000</f>
+        <v>2.56</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17:D22" si="14">C17/40</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17:F22" si="15">E17/$C$1</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="G17">
+        <f>G$3*$B17 * 8 / 1000</f>
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:H22" si="16">G17/40</f>
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <v>411</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17:J22" si="17">I17/$C$1</f>
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="K17">
+        <f>K$3*$B17 * 8 / 1000</f>
+        <v>12</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" ref="L17:L22" si="18">K17/40</f>
+        <v>0.3</v>
+      </c>
+      <c r="M17">
+        <v>2301</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ref="N17:N22" si="19">M17/$C$1</f>
+        <v>0.2301</v>
+      </c>
+      <c r="O17">
+        <f>O$3*$B17 * 8 / 1000</f>
+        <v>24</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" ref="P17:P22" si="20">O17/40</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q17">
+        <v>2210</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" ref="R17:R22" si="21">Q17/$C$1</f>
+        <v>0.221</v>
+      </c>
+      <c r="S17" s="2">
+        <f>AVERAGE(F17,J17,N17,R17)</f>
+        <v>0.124025</v>
+      </c>
+      <c r="T17" s="2">
+        <f>_xlfn.STDEV.P(F17,J17,N17,R17)</f>
+        <v>0.10242390773154479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f>C$3*$B18 * 8 / 1000</f>
+        <v>5.12</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="14"/>
+        <v>0.128</v>
+      </c>
+      <c r="E18">
+        <v>2539</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="15"/>
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="G18">
+        <f>G$3*$B18 * 8 / 1000</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>3367</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="17"/>
+        <v>0.3367</v>
+      </c>
+      <c r="K18">
+        <f>K$3*$B18 * 8 / 1000</f>
+        <v>24</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="M18">
+        <v>3213</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="19"/>
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="O18" s="6">
+        <f>O$3*$B18 * 8 / 1000</f>
+        <v>48</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <f>AVERAGE(F18,J18,N18)</f>
+        <v>0.30396666666666666</v>
+      </c>
+      <c r="T18" s="2">
+        <f>_xlfn.STDEV.P(F18,J18,N18)</f>
+        <v>3.5956393342801138E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>C$3*$B19 * 8 / 1000</f>
+        <v>7.68</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>0.192</v>
+      </c>
+      <c r="E19">
+        <v>3949</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="15"/>
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="G19">
+        <f>G$3*$B19 * 8 / 1000</f>
+        <v>12</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="16"/>
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>3871</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="17"/>
+        <v>0.3871</v>
+      </c>
+      <c r="K19">
+        <f>K$3*$B19 * 8 / 1000</f>
+        <v>36</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="18"/>
+        <v>0.9</v>
+      </c>
+      <c r="M19">
+        <v>3701</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="19"/>
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="O19" s="6">
+        <f>O$3*$B19 * 8 / 1000</f>
+        <v>72</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="20"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <f>AVERAGE(N19,J19,F19)</f>
+        <v>0.38403333333333328</v>
+      </c>
+      <c r="T19" s="2">
+        <f>_xlfn.STDEV.P(F19,J19,N19)</f>
+        <v>1.0354172535209602E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>C$3*$B20 * 8 / 1000</f>
+        <v>10.24</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="14"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E20">
+        <v>4381</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="15"/>
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="G20">
+        <f>G$3*$B20 * 8 / 1000</f>
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="I20">
+        <v>4121</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="17"/>
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="K20" s="6">
+        <f>K$3*$B20 * 8 / 1000</f>
+        <v>48</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="18"/>
+        <v>1.2</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <f>O$3*$B20 * 8 / 1000</f>
+        <v>96</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="20"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <f>AVERAGE(J20,F20)</f>
+        <v>0.42510000000000003</v>
+      </c>
+      <c r="T20" s="2">
+        <f>_xlfn.STDEV.P(F20,J20)</f>
+        <v>1.2999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f>C$3*$B21 * 8 / 1000</f>
+        <v>12.8</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="14"/>
+        <v>0.32</v>
+      </c>
+      <c r="E21">
+        <v>3975</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="15"/>
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="G21">
+        <f>G$3*$B21 * 8 / 1000</f>
+        <v>20</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>4890</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="17"/>
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <f>K$3*$B21 * 8 / 1000</f>
+        <v>60</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f>O$3*$B21 * 8 / 1000</f>
+        <v>120</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" ref="S21:S22" si="22">AVERAGE(J21,F21)</f>
+        <v>0.44325000000000003</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" ref="T21:T22" si="23">_xlfn.STDEV.P(F21,J21)</f>
+        <v>4.5749999999999916E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f>C$3*$B22 * 8 / 1000</f>
+        <v>15.36</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="14"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E22">
+        <v>4326</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="15"/>
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="G22">
+        <f>G$3*$B22 * 8 / 1000</f>
+        <v>24</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="I22">
+        <v>4753</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="17"/>
+        <v>0.4753</v>
+      </c>
+      <c r="K22" s="6">
+        <f>K$3*$B22 * 8 / 1000</f>
+        <v>72</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="18"/>
+        <v>1.8</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f>O$3*$B22 * 8 / 1000</f>
+        <v>144</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="20"/>
+        <v>3.6</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="22"/>
+        <v>0.45394999999999996</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="23"/>
+        <v>2.1350000000000008E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Coste total</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Almacenamiento (TB)</t>
   </si>
   <si>
-    <t>Mecánico Mágico</t>
-  </si>
-  <si>
     <t>Mpps</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>4 hilos</t>
+  </si>
+  <si>
+    <t>Intel SSD DC 3700</t>
+  </si>
+  <si>
+    <t>HGST Ultrastar 7K6000</t>
+  </si>
+  <si>
+    <t>Seagate Enterprise</t>
   </si>
 </sst>
 </file>
@@ -443,16 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -522,14 +528,14 @@
         <v>520</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>700</v>
+        <v>816</v>
       </c>
       <c r="F6">
         <f>ROUNDUP($D$3/D6, 0)</f>
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="G6">
         <f>ROUNDUP($D$1 / (C6 * 8 / 1024), 0)</f>
@@ -537,41 +543,101 @@
       </c>
       <c r="H6">
         <f>MAX(F6,G6)</f>
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1">
         <f>E6*H6</f>
-        <v>147700</v>
+        <v>86496</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="E7">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F7">
         <f>ROUNDUP($D$3/D7, 0)</f>
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="G7">
         <f>ROUNDUP($D$1 / (C7 * 8 / 1024), 0)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <f>MAX(F7,G7)</f>
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I7" s="1">
         <f>E7*H7</f>
-        <v>16200</v>
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <f>ROUNDUP($D$3/D8, 0)</f>
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <f>ROUNDUP($D$1 / (C8 * 8 / 1024), 0)</f>
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <f>MAX(F8,G8)</f>
+        <v>36</v>
+      </c>
+      <c r="I8" s="1">
+        <f>E8*H8</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <f>ROUNDUP($D$3/D9, 0)</f>
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <f>ROUNDUP($D$1 / (C9 * 8 / 1024), 0)</f>
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <f>MAX(F9,G9)</f>
+        <v>53</v>
+      </c>
+      <c r="I9" s="1">
+        <f>E9*H9</f>
+        <v>26500</v>
       </c>
     </row>
   </sheetData>
@@ -583,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16:T22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>10000</v>
@@ -619,7 +685,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>64</v>
@@ -652,64 +718,64 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Q4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
-      </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
         <v>20</v>
-      </c>
-      <c r="T4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1232,7 +1298,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
         <v>64</v>
@@ -1263,64 +1329,64 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" t="s">
+      <c r="Q15" t="s">
         <v>17</v>
       </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" t="s">
         <v>20</v>
-      </c>
-      <c r="T15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">

--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-220" yWindow="-18380" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
     <sheet name="Desorden" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -159,9 +160,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -170,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -649,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,37 +688,37 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="9">
         <v>64</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
         <v>100</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <v>300</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <v>600</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -779,12 +780,12 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <f>C$3*$B5 * 8 / 1000</f>
+        <f t="shared" ref="C5:C11" si="0">C$3*$B5 * 8 / 1000</f>
         <v>0.51200000000000001</v>
       </c>
       <c r="D5" s="3">
@@ -799,7 +800,7 @@
         <v>1E-3</v>
       </c>
       <c r="G5">
-        <f>G$3*$B5 * 8 / 1000</f>
+        <f t="shared" ref="G5:G11" si="1">G$3*$B5 * 8 / 1000</f>
         <v>0.8</v>
       </c>
       <c r="H5" s="3">
@@ -814,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>K$3*$B5 * 8 / 1000</f>
+        <f t="shared" ref="K5:K11" si="2">K$3*$B5 * 8 / 1000</f>
         <v>2.4</v>
       </c>
       <c r="L5" s="3">
@@ -829,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>O$3*$B5 * 8 / 1000</f>
+        <f t="shared" ref="O5:O11" si="3">O$3*$B5 * 8 / 1000</f>
         <v>4.8</v>
       </c>
       <c r="P5" s="3">
@@ -853,68 +854,68 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <f>C$3*$B6 * 8 / 1000</f>
+        <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D12" si="0">C6/40</f>
+        <f t="shared" ref="D6:D11" si="4">C6/40</f>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E6">
         <v>452</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F11" si="1">E6/$C$1</f>
+        <f t="shared" ref="F6:F11" si="5">E6/$C$1</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="G6">
-        <f>G$3*$B6 * 8 / 1000</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H12" si="2">G6/40</f>
+        <f t="shared" ref="H6:H11" si="6">G6/40</f>
         <v>0.1</v>
       </c>
       <c r="I6">
         <v>19</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J11" si="3">I6/$C$1</f>
+        <f t="shared" ref="J6:J11" si="7">I6/$C$1</f>
         <v>1.9E-3</v>
       </c>
       <c r="K6">
-        <f>K$3*$B6 * 8 / 1000</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" ref="L6:L12" si="4">K6/40</f>
+        <f t="shared" ref="L6:L11" si="8">K6/40</f>
         <v>0.3</v>
       </c>
       <c r="M6">
         <v>210</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N11" si="5">M6/$C$1</f>
+        <f t="shared" ref="N6:N11" si="9">M6/$C$1</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O6">
-        <f>O$3*$B6 * 8 / 1000</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P12" si="6">O6/40</f>
+        <f t="shared" ref="P6:P11" si="10">O6/40</f>
         <v>0.6</v>
       </c>
       <c r="Q6">
         <v>40</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ref="R6:R11" si="7">Q6/$C$1</f>
+        <f t="shared" ref="R6:R11" si="11">Q6/$C$1</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="S6" s="2">
@@ -927,66 +928,66 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <f>C$3*$B7 * 8 / 1000</f>
+        <f t="shared" si="0"/>
         <v>5.12</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.128</v>
       </c>
       <c r="E7">
         <v>1782</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1782</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.1782</v>
-      </c>
-      <c r="G7">
-        <f>G$3*$B7 * 8 / 1000</f>
         <v>8</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="I7">
         <v>1321</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1321</v>
       </c>
       <c r="K7">
-        <f>K$3*$B7 * 8 / 1000</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="M7">
         <v>900</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.09</v>
       </c>
-      <c r="O7" s="6">
-        <f>O$3*$B7 * 8 / 1000</f>
+      <c r="O7" s="5">
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="P7" s="5">
-        <f t="shared" si="6"/>
+      <c r="P7" s="4">
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S7" s="2">
@@ -999,66 +1000,66 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="C8">
-        <f>C$3*$B8 * 8 / 1000</f>
+        <f t="shared" si="0"/>
         <v>7.68</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8" si="8">C8/40</f>
+        <f t="shared" ref="D8" si="12">C8/40</f>
         <v>0.192</v>
       </c>
       <c r="E8">
         <v>2272</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.22720000000000001</v>
-      </c>
-      <c r="G8">
-        <f>G$3*$B8 * 8 / 1000</f>
         <v>12</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8" si="9">G8/40</f>
+        <f t="shared" ref="H8" si="13">G8/40</f>
         <v>0.3</v>
       </c>
       <c r="I8">
         <v>2210</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.221</v>
       </c>
       <c r="K8">
-        <f>K$3*$B8 * 8 / 1000</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" ref="L8" si="10">K8/40</f>
+        <f t="shared" ref="L8" si="14">K8/40</f>
         <v>0.9</v>
       </c>
       <c r="M8">
         <v>1230</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.123</v>
       </c>
-      <c r="O8" s="6">
-        <f>O$3*$B8 * 8 / 1000</f>
+      <c r="O8" s="5">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="P8" s="5">
-        <f t="shared" ref="P8" si="11">O8/40</f>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8" si="15">O8/40</f>
         <v>1.8</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S8" s="2">
@@ -1071,64 +1072,64 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9">
-        <f>C$3*$B9 * 8 / 1000</f>
+        <f t="shared" si="0"/>
         <v>10.24</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="E9">
         <v>2832</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.28320000000000001</v>
-      </c>
-      <c r="G9">
-        <f>G$3*$B9 * 8 / 1000</f>
         <v>16</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="I9">
         <v>2712</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2712</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="3"/>
-        <v>0.2712</v>
-      </c>
-      <c r="K9" s="6">
-        <f>K$3*$B9 * 8 / 1000</f>
-        <v>48</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f>O$3*$B9 * 8 / 1000</f>
         <v>96</v>
       </c>
-      <c r="P9" s="5">
-        <f t="shared" si="6"/>
+      <c r="P9" s="4">
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S9" s="2">
@@ -1141,142 +1142,142 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10">
-        <f>C$3*$B10 * 8 / 1000</f>
+        <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="E10">
         <v>3032</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.30320000000000003</v>
-      </c>
-      <c r="G10">
-        <f>G$3*$B10 * 8 / 1000</f>
         <v>20</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="I10">
         <v>2912</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="7"/>
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="3"/>
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="K10" s="6">
-        <f>K$3*$B10 * 8 / 1000</f>
-        <v>60</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <f>O$3*$B10 * 8 / 1000</f>
         <v>120</v>
       </c>
-      <c r="P10" s="5">
-        <f t="shared" si="6"/>
+      <c r="P10" s="4">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:T12" si="12">AVERAGE(J10,F10)</f>
+        <f t="shared" ref="S10:S11" si="16">AVERAGE(J10,F10)</f>
         <v>0.29720000000000002</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" ref="T10:T12" si="13">_xlfn.STDEV.P(F10,J10)</f>
+        <f t="shared" ref="T10:T11" si="17">_xlfn.STDEV.P(F10,J10)</f>
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11">
-        <f>C$3*$B11 * 8 / 1000</f>
+        <f t="shared" si="0"/>
         <v>15.36</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="E11">
         <v>3111</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="5"/>
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.31109999999999999</v>
-      </c>
-      <c r="G11">
-        <f>G$3*$B11 * 8 / 1000</f>
         <v>24</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="I11">
         <v>3012</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="3"/>
-        <v>0.30120000000000002</v>
-      </c>
-      <c r="K11" s="6">
-        <f>K$3*$B11 * 8 / 1000</f>
-        <v>72</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <f>O$3*$B11 * 8 / 1000</f>
         <v>144</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" si="6"/>
+      <c r="P11" s="4">
+        <f t="shared" si="10"/>
         <v>3.6</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.30615000000000003</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.9499999999999822E-3</v>
       </c>
     </row>
@@ -1300,35 +1301,35 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="9">
         <v>64</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <v>100</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
         <v>300</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9">
         <v>600</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1390,12 +1391,12 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <f>C$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="C16:C22" si="18">C$3*$B16 * 8 / 1000</f>
         <v>0.51200000000000001</v>
       </c>
       <c r="D16" s="3">
@@ -1410,7 +1411,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G16">
-        <f>G$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="G16:G22" si="19">G$3*$B16 * 8 / 1000</f>
         <v>0.8</v>
       </c>
       <c r="H16" s="3">
@@ -1425,7 +1426,7 @@
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="K16">
-        <f>K$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="K16:K22" si="20">K$3*$B16 * 8 / 1000</f>
         <v>2.4</v>
       </c>
       <c r="L16" s="3">
@@ -1440,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>O$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="O16:O22" si="21">O$3*$B16 * 8 / 1000</f>
         <v>4.8</v>
       </c>
       <c r="P16" s="3">
@@ -1464,68 +1465,68 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <f>C$3*$B17 * 8 / 1000</f>
+        <f t="shared" si="18"/>
         <v>2.56</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:D22" si="14">C17/40</f>
+        <f t="shared" ref="D17:D22" si="22">C17/40</f>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E17">
         <v>39</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:F22" si="15">E17/$C$1</f>
+        <f t="shared" ref="F17:F22" si="23">E17/$C$1</f>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G17">
-        <f>G$3*$B17 * 8 / 1000</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H22" si="16">G17/40</f>
+        <f t="shared" ref="H17:H22" si="24">G17/40</f>
         <v>0.1</v>
       </c>
       <c r="I17">
         <v>411</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17:J22" si="17">I17/$C$1</f>
+        <f t="shared" ref="J17:J22" si="25">I17/$C$1</f>
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="K17">
-        <f>K$3*$B17 * 8 / 1000</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" ref="L17:L22" si="18">K17/40</f>
+        <f t="shared" ref="L17:L22" si="26">K17/40</f>
         <v>0.3</v>
       </c>
       <c r="M17">
         <v>2301</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:N22" si="19">M17/$C$1</f>
+        <f t="shared" ref="N17:N22" si="27">M17/$C$1</f>
         <v>0.2301</v>
       </c>
       <c r="O17">
-        <f>O$3*$B17 * 8 / 1000</f>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" ref="P17:P22" si="20">O17/40</f>
+        <f t="shared" ref="P17:P22" si="28">O17/40</f>
         <v>0.6</v>
       </c>
       <c r="Q17">
         <v>2210</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17:R22" si="21">Q17/$C$1</f>
+        <f t="shared" ref="R17:R22" si="29">Q17/$C$1</f>
         <v>0.221</v>
       </c>
       <c r="S17" s="2">
@@ -1538,66 +1539,66 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
-        <f>C$3*$B18 * 8 / 1000</f>
+        <f t="shared" si="18"/>
         <v>5.12</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.128</v>
       </c>
       <c r="E18">
         <v>2539</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.25390000000000001</v>
       </c>
       <c r="G18">
-        <f>G$3*$B18 * 8 / 1000</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="I18">
         <v>3367</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.3367</v>
       </c>
       <c r="K18">
-        <f>K$3*$B18 * 8 / 1000</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.6</v>
       </c>
       <c r="M18">
         <v>3213</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.32129999999999997</v>
       </c>
-      <c r="O18" s="6">
-        <f>O$3*$B18 * 8 / 1000</f>
+      <c r="O18" s="5">
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
-      <c r="P18" s="5">
-        <f t="shared" si="20"/>
+      <c r="P18" s="4">
+        <f t="shared" si="28"/>
         <v>1.2</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="7">
-        <f t="shared" si="21"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
@@ -1610,66 +1611,66 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19">
-        <f>C$3*$B19 * 8 / 1000</f>
+        <f t="shared" si="18"/>
         <v>7.68</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.192</v>
       </c>
       <c r="E19">
         <v>3949</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.39489999999999997</v>
       </c>
       <c r="G19">
-        <f>G$3*$B19 * 8 / 1000</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
       <c r="I19">
         <v>3871</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.3871</v>
       </c>
       <c r="K19">
-        <f>K$3*$B19 * 8 / 1000</f>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="M19">
         <v>3701</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.37009999999999998</v>
       </c>
-      <c r="O19" s="6">
-        <f>O$3*$B19 * 8 / 1000</f>
+      <c r="O19" s="5">
+        <f t="shared" si="21"/>
         <v>72</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="20"/>
+      <c r="P19" s="4">
+        <f t="shared" si="28"/>
         <v>1.8</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="7">
-        <f t="shared" si="21"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S19" s="2">
@@ -1682,64 +1683,64 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <f>C$3*$B20 * 8 / 1000</f>
+        <f t="shared" si="18"/>
         <v>10.24</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="E20">
         <v>4381</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.43809999999999999</v>
       </c>
       <c r="G20">
-        <f>G$3*$B20 * 8 / 1000</f>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
       <c r="I20">
         <v>4121</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.41210000000000002</v>
       </c>
-      <c r="K20" s="6">
-        <f>K$3*$B20 * 8 / 1000</f>
+      <c r="K20" s="5">
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
-      <c r="L20" s="5">
-        <f t="shared" si="18"/>
+      <c r="L20" s="4">
+        <f t="shared" si="26"/>
         <v>1.2</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <f>O$3*$B20 * 8 / 1000</f>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="21"/>
         <v>96</v>
       </c>
-      <c r="P20" s="5">
-        <f t="shared" si="20"/>
+      <c r="P20" s="4">
+        <f t="shared" si="28"/>
         <v>2.4</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7">
-        <f t="shared" si="21"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S20" s="2">
@@ -1752,142 +1753,142 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>25</v>
       </c>
       <c r="C21">
-        <f>C$3*$B21 * 8 / 1000</f>
+        <f t="shared" si="18"/>
         <v>12.8</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.32</v>
       </c>
       <c r="E21">
         <v>3975</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.39750000000000002</v>
       </c>
       <c r="G21">
-        <f>G$3*$B21 * 8 / 1000</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="I21">
         <v>4890</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.48899999999999999</v>
       </c>
-      <c r="K21" s="6">
-        <f>K$3*$B21 * 8 / 1000</f>
+      <c r="K21" s="5">
+        <f t="shared" si="20"/>
         <v>60</v>
       </c>
-      <c r="L21" s="5">
-        <f t="shared" si="18"/>
+      <c r="L21" s="4">
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <f>O$3*$B21 * 8 / 1000</f>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="21"/>
         <v>120</v>
       </c>
-      <c r="P21" s="5">
-        <f t="shared" si="20"/>
+      <c r="P21" s="4">
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="7">
-        <f t="shared" si="21"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21:S22" si="22">AVERAGE(J21,F21)</f>
+        <f t="shared" ref="S21:S22" si="30">AVERAGE(J21,F21)</f>
         <v>0.44325000000000003</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" ref="T21:T22" si="23">_xlfn.STDEV.P(F21,J21)</f>
+        <f t="shared" ref="T21:T22" si="31">_xlfn.STDEV.P(F21,J21)</f>
         <v>4.5749999999999916E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22">
         <v>30</v>
       </c>
       <c r="C22">
-        <f>C$3*$B22 * 8 / 1000</f>
+        <f t="shared" si="18"/>
         <v>15.36</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="E22">
         <v>4326</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.43259999999999998</v>
       </c>
       <c r="G22">
-        <f>G$3*$B22 * 8 / 1000</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.6</v>
       </c>
       <c r="I22">
         <v>4753</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.4753</v>
       </c>
-      <c r="K22" s="6">
-        <f>K$3*$B22 * 8 / 1000</f>
+      <c r="K22" s="5">
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
-      <c r="L22" s="5">
-        <f t="shared" si="18"/>
+      <c r="L22" s="4">
+        <f t="shared" si="26"/>
         <v>1.8</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <f>O$3*$B22 * 8 / 1000</f>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="21"/>
         <v>144</v>
       </c>
-      <c r="P22" s="5">
-        <f t="shared" si="20"/>
+      <c r="P22" s="4">
+        <f t="shared" si="28"/>
         <v>3.6</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="7">
-        <f t="shared" si="21"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.45394999999999996</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2.1350000000000008E-2</v>
       </c>
     </row>
@@ -1896,11 +1897,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="C3:F3"/>
@@ -1908,7 +1904,24 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="-18380" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-4180" yWindow="-20480" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
     <sheet name="Desorden" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Cicclos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Coste total</t>
   </si>
@@ -104,14 +104,54 @@
   </si>
   <si>
     <t>Seagate Enterprise</t>
+  </si>
+  <si>
+    <t>Caché L1</t>
+  </si>
+  <si>
+    <t>Caché L2</t>
+  </si>
+  <si>
+    <t>Caché L3</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Ciclos</t>
+  </si>
+  <si>
+    <t>Nanosegundos</t>
+  </si>
+  <si>
+    <t>Reloj (GHz)</t>
+  </si>
+  <si>
+    <t>% Tiempo disponible</t>
+  </si>
+  <si>
+    <t>Tasa efectiva (Gbps)</t>
+  </si>
+  <si>
+    <t>Tamaño paquete (Bytes)</t>
+  </si>
+  <si>
+    <t>Tasa (Gpps)</t>
+  </si>
+  <si>
+    <t>Tiempo entre paquetes (ns)</t>
+  </si>
+  <si>
+    <t>Tiempo entre paquetes (ciclos)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,14 +204,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -453,7 +495,7 @@
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +693,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,37 +730,37 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>64</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
         <v>100</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <v>300</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
         <v>600</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -780,7 +822,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -854,7 +896,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -928,7 +970,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -1000,7 +1042,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8">
         <v>15</v>
       </c>
@@ -1072,7 +1114,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9">
         <v>20</v>
       </c>
@@ -1142,7 +1184,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10">
         <v>25</v>
       </c>
@@ -1212,7 +1254,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11">
         <v>30</v>
       </c>
@@ -1301,35 +1343,35 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>64</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <v>100</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
         <v>300</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
         <v>600</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1391,12 +1433,12 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C22" si="18">C$3*$B16 * 8 / 1000</f>
+        <f>C$3*$B16 * 8 / 1000</f>
         <v>0.51200000000000001</v>
       </c>
       <c r="D16" s="3">
@@ -1411,7 +1453,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G22" si="19">G$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="G16:G22" si="18">G$3*$B16 * 8 / 1000</f>
         <v>0.8</v>
       </c>
       <c r="H16" s="3">
@@ -1426,7 +1468,7 @@
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K22" si="20">K$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="K16:K22" si="19">K$3*$B16 * 8 / 1000</f>
         <v>2.4</v>
       </c>
       <c r="L16" s="3">
@@ -1441,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O22" si="21">O$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="O16:O22" si="20">O$3*$B16 * 8 / 1000</f>
         <v>4.8</v>
       </c>
       <c r="P16" s="3">
@@ -1465,12 +1507,12 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C16:C22" si="21">C$3*$B17 * 8 / 1000</f>
         <v>2.56</v>
       </c>
       <c r="D17" s="3">
@@ -1485,7 +1527,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="H17" s="3">
@@ -1500,7 +1542,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="L17" s="3">
@@ -1515,7 +1557,7 @@
         <v>0.2301</v>
       </c>
       <c r="O17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="P17" s="3">
@@ -1539,12 +1581,12 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5.12</v>
       </c>
       <c r="D18" s="3">
@@ -1559,7 +1601,7 @@
         <v>0.25390000000000001</v>
       </c>
       <c r="G18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="H18" s="3">
@@ -1574,7 +1616,7 @@
         <v>0.3367</v>
       </c>
       <c r="K18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="L18" s="3">
@@ -1589,7 +1631,7 @@
         <v>0.32129999999999997</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="P18" s="4">
@@ -1611,12 +1653,12 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7.68</v>
       </c>
       <c r="D19" s="3">
@@ -1631,7 +1673,7 @@
         <v>0.39489999999999997</v>
       </c>
       <c r="G19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="H19" s="3">
@@ -1646,7 +1688,7 @@
         <v>0.3871</v>
       </c>
       <c r="K19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="L19" s="3">
@@ -1661,7 +1703,7 @@
         <v>0.37009999999999998</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
       <c r="P19" s="4">
@@ -1683,12 +1725,12 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10.24</v>
       </c>
       <c r="D20" s="3">
@@ -1703,7 +1745,7 @@
         <v>0.43809999999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="H20" s="3">
@@ -1718,7 +1760,7 @@
         <v>0.41210000000000002</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
       <c r="L20" s="4">
@@ -1731,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>96</v>
       </c>
       <c r="P20" s="4">
@@ -1753,12 +1795,12 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21">
         <v>25</v>
       </c>
       <c r="C21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>12.8</v>
       </c>
       <c r="D21" s="3">
@@ -1773,7 +1815,7 @@
         <v>0.39750000000000002</v>
       </c>
       <c r="G21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H21" s="3">
@@ -1788,7 +1830,7 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="L21" s="4">
@@ -1801,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>120</v>
       </c>
       <c r="P21" s="4">
@@ -1823,12 +1865,12 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22">
         <v>30</v>
       </c>
       <c r="C22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15.36</v>
       </c>
       <c r="D22" s="3">
@@ -1843,7 +1885,7 @@
         <v>0.43259999999999998</v>
       </c>
       <c r="G22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="H22" s="3">
@@ -1858,7 +1900,7 @@
         <v>0.4753</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="L22" s="4">
@@ -1871,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>144</v>
       </c>
       <c r="P22" s="4">
@@ -1897,6 +1939,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="C3:F3"/>
@@ -1904,11 +1951,6 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1916,12 +1958,176 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <f xml:space="preserve"> C7 / $C$4</f>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="E7" s="2">
+        <f xml:space="preserve">  D7 / (1/( (40 * E$6 / (8 * (E$6 + 20))) / E$6))</f>
+        <v>7.0028011204481794E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f xml:space="preserve">  E7 / (1/( (40 * F$6 / (8 * (F$6 + 20))) / F$6))</f>
+        <v>2.5010004001600641E-3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="10">
+        <f xml:space="preserve"> J4 * J6 / ( J6 + 20)</f>
+        <v>30.476190476190474</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" ref="D8:D10" si="0" xml:space="preserve"> C8 / $C$4</f>
+        <v>3.5294117647058822</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:F10" si="1" xml:space="preserve">  D8 / (1/( (40 * E$6 / (8 * (E$6 + 20))) / E$6))</f>
+        <v>0.21008403361344535</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5030012004801911E-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="11">
+        <f>J7 / (8 * J6)</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>12.941176470588236</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77030812324929965</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7511004401760703E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <f xml:space="preserve"> 1 / J8</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28011204481792717</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0004001600640256E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <f xml:space="preserve"> J5 * J9</f>
+        <v>57.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4180" yWindow="-20480" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-800" yWindow="-18540" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
     <sheet name="Desorden" sheetId="2" r:id="rId2"/>
-    <sheet name="Cicclos" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Cicclos" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Coste total</t>
   </si>
@@ -143,6 +144,18 @@
   </si>
   <si>
     <t>Tiempo entre paquetes (ciclos)</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>Interframe Gap</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Total Extra</t>
   </si>
 </sst>
 </file>
@@ -203,6 +216,8 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,8 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -693,7 +706,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,37 +743,37 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>64</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
         <v>100</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <v>300</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <v>600</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -822,7 +835,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -896,7 +909,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -970,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -1042,7 +1055,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>15</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>7.68</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8" si="12">C8/40</f>
+        <f>C8/40</f>
         <v>0.192</v>
       </c>
       <c r="E8">
@@ -1066,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8" si="13">G8/40</f>
+        <f>G8/40</f>
         <v>0.3</v>
       </c>
       <c r="I8">
@@ -1081,7 +1094,7 @@
         <v>36</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" ref="L8" si="14">K8/40</f>
+        <f>K8/40</f>
         <v>0.9</v>
       </c>
       <c r="M8">
@@ -1096,7 +1109,7 @@
         <v>72</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8" si="15">O8/40</f>
+        <f>O8/40</f>
         <v>1.8</v>
       </c>
       <c r="Q8" s="5"/>
@@ -1114,7 +1127,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>20</v>
       </c>
@@ -1184,7 +1197,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10">
         <v>25</v>
       </c>
@@ -1245,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:S11" si="16">AVERAGE(J10,F10)</f>
+        <f>AVERAGE(J10,F10)</f>
         <v>0.29720000000000002</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" ref="T10:T11" si="17">_xlfn.STDEV.P(F10,J10)</f>
+        <f>_xlfn.STDEV.P(F10,J10)</f>
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11">
         <v>30</v>
       </c>
@@ -1315,11 +1328,11 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="16"/>
+        <f>AVERAGE(J11,F11)</f>
         <v>0.30615000000000003</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="17"/>
+        <f>_xlfn.STDEV.P(F11,J11)</f>
         <v>4.9499999999999822E-3</v>
       </c>
     </row>
@@ -1343,35 +1356,35 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>64</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <v>100</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
         <v>300</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9">
         <v>600</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1433,7 +1446,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G22" si="18">G$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="G16:G22" si="12">G$3*$B16 * 8 / 1000</f>
         <v>0.8</v>
       </c>
       <c r="H16" s="3">
@@ -1468,7 +1481,7 @@
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K22" si="19">K$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="K16:K22" si="13">K$3*$B16 * 8 / 1000</f>
         <v>2.4</v>
       </c>
       <c r="L16" s="3">
@@ -1483,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:O22" si="20">O$3*$B16 * 8 / 1000</f>
+        <f t="shared" ref="O16:O22" si="14">O$3*$B16 * 8 / 1000</f>
         <v>4.8</v>
       </c>
       <c r="P16" s="3">
@@ -1507,68 +1520,68 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C16:C22" si="21">C$3*$B17 * 8 / 1000</f>
+        <f t="shared" ref="C17:C22" si="15">C$3*$B17 * 8 / 1000</f>
         <v>2.56</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:D22" si="22">C17/40</f>
+        <f t="shared" ref="D17:D22" si="16">C17/40</f>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E17">
         <v>39</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:F22" si="23">E17/$C$1</f>
+        <f t="shared" ref="F17:F22" si="17">E17/$C$1</f>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H22" si="24">G17/40</f>
+        <f t="shared" ref="H17:H22" si="18">G17/40</f>
         <v>0.1</v>
       </c>
       <c r="I17">
         <v>411</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17:J22" si="25">I17/$C$1</f>
+        <f t="shared" ref="J17:J22" si="19">I17/$C$1</f>
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" ref="L17:L22" si="26">K17/40</f>
+        <f t="shared" ref="L17:L22" si="20">K17/40</f>
         <v>0.3</v>
       </c>
       <c r="M17">
         <v>2301</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:N22" si="27">M17/$C$1</f>
+        <f t="shared" ref="N17:N22" si="21">M17/$C$1</f>
         <v>0.2301</v>
       </c>
       <c r="O17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" ref="P17:P22" si="28">O17/40</f>
+        <f t="shared" ref="P17:P22" si="22">O17/40</f>
         <v>0.6</v>
       </c>
       <c r="Q17">
         <v>2210</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17:R22" si="29">Q17/$C$1</f>
+        <f t="shared" ref="R17:R22" si="23">Q17/$C$1</f>
         <v>0.221</v>
       </c>
       <c r="S17" s="2">
@@ -1581,66 +1594,66 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.12</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.128</v>
       </c>
       <c r="E18">
         <v>2539</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.25390000000000001</v>
       </c>
       <c r="G18">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="I18">
         <v>3367</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.3367</v>
       </c>
       <c r="K18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
       <c r="M18">
         <v>3213</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.32129999999999997</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1.2</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
@@ -1653,66 +1666,66 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.68</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.192</v>
       </c>
       <c r="E19">
         <v>3949</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.39489999999999997</v>
       </c>
       <c r="G19">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
       <c r="I19">
         <v>3871</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.3871</v>
       </c>
       <c r="K19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.9</v>
       </c>
       <c r="M19">
         <v>3701</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.37009999999999998</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1.8</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S19" s="2">
@@ -1725,64 +1738,64 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>10.24</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="E20">
         <v>4381</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.43809999999999999</v>
       </c>
       <c r="G20">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
       <c r="I20">
         <v>4121</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.41210000000000002</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1.2</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>2.4</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S20" s="2">
@@ -1795,142 +1808,142 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21">
         <v>25</v>
       </c>
       <c r="C21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>12.8</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.32</v>
       </c>
       <c r="E21">
         <v>3975</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.39750000000000002</v>
       </c>
       <c r="G21">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="I21">
         <v>4890</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.48899999999999999</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21:S22" si="30">AVERAGE(J21,F21)</f>
+        <f>AVERAGE(J21,F21)</f>
         <v>0.44325000000000003</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" ref="T21:T22" si="31">_xlfn.STDEV.P(F21,J21)</f>
+        <f>_xlfn.STDEV.P(F21,J21)</f>
         <v>4.5749999999999916E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22">
         <v>30</v>
       </c>
       <c r="C22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.36</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.38400000000000001</v>
       </c>
       <c r="E22">
         <v>4326</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.43259999999999998</v>
       </c>
       <c r="G22">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="24"/>
         <v>0.6</v>
       </c>
       <c r="I22">
         <v>4753</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.4753</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1.8</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3.6</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="30"/>
+        <f>AVERAGE(J22,F22)</f>
         <v>0.45394999999999996</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="31"/>
+        <f>_xlfn.STDEV.P(F22,J22)</f>
         <v>2.1350000000000008E-2</v>
       </c>
     </row>
@@ -1958,10 +1971,465 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>C3+D3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>C4+D4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>600</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>1000 * ($B10 / 8) / ($E$3 + C$9)</f>
+        <v>1.5625</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:J10" si="0">1000 * ($B10 / 8) / ($E$3 + D$9)</f>
+        <v>1.3020833333333333</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.0775862068965518</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.57870370370370372</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.39556962025316456</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.20292207792207792</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.12303149606299213</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>8.2453825857519786E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C19" si="1">1000 * (B11 / 8) / ($E$3 + C10)</f>
+        <v>14.234875444839858</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D19" si="2">1000 * (C11 / 8) / ($E$3 + D10)</f>
+        <v>102.84076179294298</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E19" si="3">1000 * (D11 / 8) / ($E$3 + E10)</f>
+        <v>752.746615849406</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F19" si="4">1000 * (E11 / 8) / ($E$3 + F10)</f>
+        <v>5675.5539312856645</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G19" si="5">1000 * (F11 / 8) / ($E$3 + G10)</f>
+        <v>43270.484517618941</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H19" si="6">1000 * (G11 / 8) / ($E$3 + H10)</f>
+        <v>333816.98305346741</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I19" si="7">1000 * (H11 / 8) / ($E$3 + I10)</f>
+        <v>2588044.4934857674</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J19" si="8">1000 * (I11 / 8) / ($E$3 + J10)</f>
+        <v>20115435.442170251</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>12.402895480225988</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>13.04570848956231</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2.1212627510476589</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>4.6587952443606362E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>1.3453377238524538E-4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>5.0374655596754715E-8</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>2.4330312082904052E-12</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>1.5119168561075466E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>17.603839029302438</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>75.759208264916523</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>522.58505178217092</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>4070.8424536335046</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>31803.189256322719</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>248462.41528275821</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>1941112.6193962533</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>15164942.339033229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>18.599065406038939</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>25.336783301821161</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>5.8804044082689622</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0.17985781428400943</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>7.0656189899727839E-4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>3.5544430398171611E-7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>2.2889023196996439E-11</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>1.8866704646726729E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>21.67688610077585</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>65.549627865640062</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>374.47678435543332</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>2893.0784548121555</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>22601.177357545381</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>176571.69418323561</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>1379466.3608045548</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>10777080.943785584</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>23.223787593794327</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>35.597629629986621</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>11.395565324308665</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>0.48965529382072381</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>2.7062135455718601E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1.9156300486344811E-6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>1.735823254308621E-10</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>2.0133242553199259E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>25.494733205168895</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>61.763334352747826</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>281.81264751061696</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>2136.2836463917961</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>16686.893593843582</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>130366.34059354804</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>1018487.0358760447</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>7956929.9677815968</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>27.111874522424003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>43.580748478839482</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>18.29201548487201</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>1.0623608739685477</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>7.9504253858753322E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>7.6222222174434167E-6</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>9.3546876505961E-10</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>1.4695788573395635E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>28.99433192935814</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>60.829908715513369</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>221.73495730496143</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>1624.4451672222481</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>12684.67483387314</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>99098.974929983378</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>774210.74159522948</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>6048521.4187127249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,10 +2453,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="9"/>
       <c r="I5" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +2491,7 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f xml:space="preserve"> C7 / $C$4</f>
         <v>1.1764705882352942</v>
       </c>
@@ -2038,7 +2506,7 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <f xml:space="preserve"> J4 * J6 / ( J6 + 20)</f>
         <v>30.476190476190474</v>
       </c>
@@ -2050,22 +2518,22 @@
       <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8" s="10">
-        <f t="shared" ref="D8:D10" si="0" xml:space="preserve"> C8 / $C$4</f>
+      <c r="D8" s="7">
+        <f xml:space="preserve"> C8 / $C$4</f>
         <v>3.5294117647058822</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:F10" si="1" xml:space="preserve">  D8 / (1/( (40 * E$6 / (8 * (E$6 + 20))) / E$6))</f>
+        <f t="shared" ref="E8:F10" si="0" xml:space="preserve">  D8 / (1/( (40 * E$6 / (8 * (E$6 + 20))) / E$6))</f>
         <v>0.21008403361344535</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5030012004801911E-3</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <f>J7 / (8 * J6)</f>
         <v>5.9523809523809521E-2</v>
       </c>
@@ -2077,16 +2545,16 @@
       <c r="C9">
         <v>44</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
+        <f xml:space="preserve"> C9 / $C$4</f>
+        <v>12.941176470588236</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>12.941176470588236</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
         <v>0.77030812324929965</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7511004401760703E-2</v>
       </c>
       <c r="I9" t="s">
@@ -2104,16 +2572,16 @@
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
+        <f xml:space="preserve"> C10 / $C$4</f>
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>4.7058823529411766</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
         <v>0.28011204481792717</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0004001600640256E-2</v>
       </c>
       <c r="I10" t="s">

--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-800" yWindow="-18540" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
     <sheet name="Desorden" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Rates" sheetId="4" r:id="rId3"/>
     <sheet name="Cicclos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Coste total</t>
   </si>
@@ -156,15 +156,25 @@
   </si>
   <si>
     <t>Total Extra</t>
+  </si>
+  <si>
+    <t>Tamaño de paquete</t>
+  </si>
+  <si>
+    <t>Tasa 10 GbE</t>
+  </si>
+  <si>
+    <t>Preamble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -208,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,14 +229,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -706,7 +717,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,37 +754,37 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>64</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11">
         <v>100</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
         <v>300</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11">
         <v>600</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -835,7 +846,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -909,7 +920,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -983,7 +994,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -1055,7 +1066,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8">
         <v>15</v>
       </c>
@@ -1127,7 +1138,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9">
         <v>20</v>
       </c>
@@ -1197,7 +1208,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10">
         <v>25</v>
       </c>
@@ -1267,7 +1278,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11">
         <v>30</v>
       </c>
@@ -1356,35 +1367,35 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>64</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
         <v>300</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
         <v>600</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1446,7 +1457,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -1520,7 +1531,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -1594,7 +1605,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18">
         <v>10</v>
       </c>
@@ -1666,7 +1677,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19">
         <v>15</v>
       </c>
@@ -1738,7 +1749,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20">
         <v>20</v>
       </c>
@@ -1808,7 +1819,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21">
         <v>25</v>
       </c>
@@ -1878,7 +1889,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22">
         <v>30</v>
       </c>
@@ -1952,11 +1963,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="C3:F3"/>
@@ -1964,6 +1970,11 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1971,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,12 +1995,15 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1998,14 +2012,17 @@
         <v>10</v>
       </c>
       <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
-        <f>C3+D3</f>
-        <v>16</v>
+      <c r="F3">
+        <f>C3+D3+E3</f>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -2013,14 +2030,17 @@
         <v>40</v>
       </c>
       <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <f>C4+D4</f>
-        <v>16</v>
+      <c r="F4">
+        <f>C4+D4+E4</f>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2046,377 +2066,483 @@
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>1500</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>1000 * ($B10 / 8) / ($E$3 + C$9)</f>
-        <v>1.5625</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:J10" si="0">1000 * ($B10 / 8) / ($E$3 + D$9)</f>
-        <v>1.3020833333333333</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.0775862068965518</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.57870370370370372</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.39556962025316456</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.20292207792207792</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.12303149606299213</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>8.2453825857519786E-2</v>
+      <c r="C10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + C$9)</f>
+        <v>1.4204545454545454</v>
+      </c>
+      <c r="D10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + D$9)</f>
+        <v>1.2019230769230769</v>
+      </c>
+      <c r="E10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + E$9)</f>
+        <v>1.0080645161290323</v>
+      </c>
+      <c r="F10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + F$9)</f>
+        <v>0.5580357142857143</v>
+      </c>
+      <c r="G10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + G$9)</f>
+        <v>0.38580246913580246</v>
+      </c>
+      <c r="H10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + H$9)</f>
+        <v>0.20032051282051283</v>
+      </c>
+      <c r="I10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + I$9)</f>
+        <v>0.1220703125</v>
+      </c>
+      <c r="J10" s="12">
+        <f>1000 * ($B10 / 8) / ($F$3 + J$9)</f>
+        <v>8.1274382314694402E-2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C19" si="1">1000 * (B11 / 8) / ($E$3 + C10)</f>
-        <v>14.234875444839858</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:D19" si="2">1000 * (C11 / 8) / ($E$3 + D10)</f>
-        <v>102.84076179294298</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11:E19" si="3">1000 * (D11 / 8) / ($E$3 + E10)</f>
-        <v>752.746615849406</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F19" si="4">1000 * (E11 / 8) / ($E$3 + F10)</f>
-        <v>5675.5539312856645</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G19" si="5">1000 * (F11 / 8) / ($E$3 + G10)</f>
-        <v>43270.484517618941</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H19" si="6">1000 * (G11 / 8) / ($E$3 + H10)</f>
-        <v>333816.98305346741</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I19" si="7">1000 * (H11 / 8) / ($E$3 + I10)</f>
-        <v>2588044.4934857674</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J19" si="8">1000 * (I11 / 8) / ($E$3 + J10)</f>
-        <v>20115435.442170251</v>
+      <c r="C11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + C$9)</f>
+        <v>2.8409090909090908</v>
+      </c>
+      <c r="D11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + D$9)</f>
+        <v>2.4038461538461537</v>
+      </c>
+      <c r="E11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + E$9)</f>
+        <v>2.0161290322580645</v>
+      </c>
+      <c r="F11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + F$9)</f>
+        <v>1.1160714285714286</v>
+      </c>
+      <c r="G11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + G$9)</f>
+        <v>0.77160493827160492</v>
+      </c>
+      <c r="H11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + H$9)</f>
+        <v>0.40064102564102566</v>
+      </c>
+      <c r="I11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + I$9)</f>
+        <v>0.244140625</v>
+      </c>
+      <c r="J11" s="12">
+        <f>1000 * ($B11 / 8) / ($F$3 + J$9)</f>
+        <v>0.1625487646293888</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>12.402895480225988</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>13.04570848956231</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>2.1212627510476589</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>4.6587952443606362E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>1.3453377238524538E-4</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>5.0374655596754715E-8</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="7"/>
-        <v>2.4330312082904052E-12</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>1.5119168561075466E-17</v>
+      <c r="C12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + C$9)</f>
+        <v>4.2613636363636367</v>
+      </c>
+      <c r="D12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + D$9)</f>
+        <v>3.6057692307692308</v>
+      </c>
+      <c r="E12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + E$9)</f>
+        <v>3.024193548387097</v>
+      </c>
+      <c r="F12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + F$9)</f>
+        <v>1.6741071428571428</v>
+      </c>
+      <c r="G12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + G$9)</f>
+        <v>1.1574074074074074</v>
+      </c>
+      <c r="H12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + H$9)</f>
+        <v>0.60096153846153844</v>
+      </c>
+      <c r="I12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + I$9)</f>
+        <v>0.3662109375</v>
+      </c>
+      <c r="J12" s="12">
+        <f>1000 * ($B12 / 8) / ($F$3 + J$9)</f>
+        <v>0.24382314694408322</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>17.603839029302438</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>75.759208264916523</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>522.58505178217092</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>4070.8424536335046</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>31803.189256322719</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>248462.41528275821</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="7"/>
-        <v>1941112.6193962533</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="8"/>
-        <v>15164942.339033229</v>
+      <c r="C13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + C$9)</f>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="D13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + D$9)</f>
+        <v>4.8076923076923075</v>
+      </c>
+      <c r="E13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + E$9)</f>
+        <v>4.032258064516129</v>
+      </c>
+      <c r="F13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + F$9)</f>
+        <v>2.2321428571428572</v>
+      </c>
+      <c r="G13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + G$9)</f>
+        <v>1.5432098765432098</v>
+      </c>
+      <c r="H13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + H$9)</f>
+        <v>0.80128205128205132</v>
+      </c>
+      <c r="I13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + I$9)</f>
+        <v>0.48828125</v>
+      </c>
+      <c r="J13" s="12">
+        <f>1000 * ($B13 / 8) / ($F$3 + J$9)</f>
+        <v>0.32509752925877761</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>18.599065406038939</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>25.336783301821161</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>5.8804044082689622</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
-        <v>0.17985781428400943</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>7.0656189899727839E-4</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>3.5544430398171611E-7</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="7"/>
-        <v>2.2889023196996439E-11</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="8"/>
-        <v>1.8866704646726729E-16</v>
+      <c r="C14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + C$9)</f>
+        <v>7.1022727272727275</v>
+      </c>
+      <c r="D14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + D$9)</f>
+        <v>6.009615384615385</v>
+      </c>
+      <c r="E14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + E$9)</f>
+        <v>5.040322580645161</v>
+      </c>
+      <c r="F14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + F$9)</f>
+        <v>2.7901785714285716</v>
+      </c>
+      <c r="G14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + G$9)</f>
+        <v>1.9290123456790123</v>
+      </c>
+      <c r="H14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + H$9)</f>
+        <v>1.0016025641025641</v>
+      </c>
+      <c r="I14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + I$9)</f>
+        <v>0.6103515625</v>
+      </c>
+      <c r="J14" s="12">
+        <f>1000 * ($B14 / 8) / ($F$3 + J$9)</f>
+        <v>0.40637191157347202</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>21.67688610077585</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>65.549627865640062</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>374.47678435543332</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>2893.0784548121555</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>22601.177357545381</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>176571.69418323561</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="7"/>
-        <v>1379466.3608045548</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="8"/>
-        <v>10777080.943785584</v>
+      <c r="C15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + C$9)</f>
+        <v>8.5227272727272734</v>
+      </c>
+      <c r="D15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + D$9)</f>
+        <v>7.2115384615384617</v>
+      </c>
+      <c r="E15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + E$9)</f>
+        <v>6.0483870967741939</v>
+      </c>
+      <c r="F15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + F$9)</f>
+        <v>3.3482142857142856</v>
+      </c>
+      <c r="G15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + G$9)</f>
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="H15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + H$9)</f>
+        <v>1.2019230769230769</v>
+      </c>
+      <c r="I15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + I$9)</f>
+        <v>0.732421875</v>
+      </c>
+      <c r="J15" s="12">
+        <f>1000 * ($B15 / 8) / ($F$3 + J$9)</f>
+        <v>0.48764629388816644</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>23.223787593794327</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>35.597629629986621</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>11.395565324308665</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
-        <v>0.48965529382072381</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>2.7062135455718601E-3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
-        <v>1.9156300486344811E-6</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="7"/>
-        <v>1.735823254308621E-10</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="8"/>
-        <v>2.0133242553199259E-15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + C$9)</f>
+        <v>9.9431818181818183</v>
+      </c>
+      <c r="D16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + D$9)</f>
+        <v>8.4134615384615383</v>
+      </c>
+      <c r="E16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + E$9)</f>
+        <v>7.056451612903226</v>
+      </c>
+      <c r="F16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + F$9)</f>
+        <v>3.90625</v>
+      </c>
+      <c r="G16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + G$9)</f>
+        <v>2.7006172839506171</v>
+      </c>
+      <c r="H16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + H$9)</f>
+        <v>1.4022435897435896</v>
+      </c>
+      <c r="I16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + I$9)</f>
+        <v>0.8544921875</v>
+      </c>
+      <c r="J16" s="12">
+        <f>1000 * ($B16 / 8) / ($F$3 + J$9)</f>
+        <v>0.56892067620286091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>25.494733205168895</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>61.763334352747826</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>281.81264751061696</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>2136.2836463917961</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
-        <v>16686.893593843582</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>130366.34059354804</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="7"/>
-        <v>1018487.0358760447</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="8"/>
-        <v>7956929.9677815968</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + C$9)</f>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="D17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + D$9)</f>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="E17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + E$9)</f>
+        <v>8.064516129032258</v>
+      </c>
+      <c r="F17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + F$9)</f>
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="G17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + G$9)</f>
+        <v>3.0864197530864197</v>
+      </c>
+      <c r="H17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + H$9)</f>
+        <v>1.6025641025641026</v>
+      </c>
+      <c r="I17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + I$9)</f>
+        <v>0.9765625</v>
+      </c>
+      <c r="J17" s="12">
+        <f>1000 * ($B17 / 8) / ($F$3 + J$9)</f>
+        <v>0.65019505851755521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>9</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>27.111874522424003</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>43.580748478839482</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>18.29201548487201</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>1.0623608739685477</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>7.9504253858753322E-3</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
-        <v>7.6222222174434167E-6</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="7"/>
-        <v>9.3546876505961E-10</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="8"/>
-        <v>1.4695788573395635E-14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + C$9)</f>
+        <v>12.784090909090908</v>
+      </c>
+      <c r="D18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + D$9)</f>
+        <v>10.817307692307692</v>
+      </c>
+      <c r="E18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + E$9)</f>
+        <v>9.07258064516129</v>
+      </c>
+      <c r="F18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + F$9)</f>
+        <v>5.0223214285714288</v>
+      </c>
+      <c r="G18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + G$9)</f>
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="H18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + H$9)</f>
+        <v>1.8028846153846154</v>
+      </c>
+      <c r="I18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + I$9)</f>
+        <v>1.0986328125</v>
+      </c>
+      <c r="J18" s="12">
+        <f>1000 * ($B18 / 8) / ($F$3 + J$9)</f>
+        <v>0.73146944083224963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>28.99433192935814</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>60.829908715513369</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>221.73495730496143</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1624.4451672222481</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>12684.67483387314</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
-        <v>99098.974929983378</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="7"/>
-        <v>774210.74159522948</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="8"/>
-        <v>6048521.4187127249</v>
+      <c r="C19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + C$9)</f>
+        <v>14.204545454545455</v>
+      </c>
+      <c r="D19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + D$9)</f>
+        <v>12.01923076923077</v>
+      </c>
+      <c r="E19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + E$9)</f>
+        <v>10.080645161290322</v>
+      </c>
+      <c r="F19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + F$9)</f>
+        <v>5.5803571428571432</v>
+      </c>
+      <c r="G19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + G$9)</f>
+        <v>3.8580246913580245</v>
+      </c>
+      <c r="H19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + H$9)</f>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="I19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + I$9)</f>
+        <v>1.220703125</v>
+      </c>
+      <c r="J19" s="12">
+        <f>1000 * ($B19 / 8) / ($F$3 + J$9)</f>
+        <v>0.81274382314694404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7">
+        <f xml:space="preserve"> $A24 * C$23/ (C$23 + $F3)</f>
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24:J25" si="0" xml:space="preserve"> $A24 * D$23/ (D$23 + $F3)</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>8.064516129032258</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>9.615384615384615</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="0"/>
+        <v>9.765625</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="0"/>
+        <v>9.8439531859557867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7">
+        <f xml:space="preserve"> $A25 * C$23/ (C$23 + $F4)</f>
+        <v>29.09090909090909</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="0"/>
+        <v>39.0625</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="0"/>
+        <v>39.375812743823147</v>
       </c>
     </row>
   </sheetData>
@@ -2453,10 +2579,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="11"/>
       <c r="I5" t="s">
         <v>32</v>
       </c>

--- a/HelperTFG.xlsx
+++ b/HelperTFG.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Discos RAID" sheetId="1" r:id="rId1"/>
     <sheet name="Desorden" sheetId="2" r:id="rId2"/>
     <sheet name="Rates" sheetId="4" r:id="rId3"/>
-    <sheet name="Cicclos" sheetId="3" r:id="rId4"/>
+    <sheet name="Ciclos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Coste total</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>Preamble</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Bytes / packet</t>
+  </si>
+  <si>
+    <t>10 GbE Mpps</t>
+  </si>
+  <si>
+    <t>40 GbE Mpps</t>
+  </si>
+  <si>
+    <t>Speed (Gbps)</t>
+  </si>
+  <si>
+    <t>Tasa 40 GbE</t>
   </si>
 </sst>
 </file>
@@ -228,6 +246,7 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
@@ -237,7 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -518,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -754,37 +772,37 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>64</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>100</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
         <v>300</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
         <v>600</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -846,7 +864,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -920,7 +938,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -994,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -1066,7 +1084,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>15</v>
       </c>
@@ -1138,7 +1156,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>20</v>
       </c>
@@ -1208,7 +1226,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10">
         <v>25</v>
       </c>
@@ -1278,7 +1296,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11">
         <v>30</v>
       </c>
@@ -1367,35 +1385,35 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>64</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <v>100</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
         <v>300</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
         <v>600</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
@@ -1457,7 +1475,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16">
         <v>1</v>
       </c>
@@ -1531,7 +1549,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -1605,7 +1623,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18">
         <v>10</v>
       </c>
@@ -1677,7 +1695,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19">
         <v>15</v>
       </c>
@@ -1749,7 +1767,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20">
         <v>20</v>
       </c>
@@ -1819,7 +1837,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21">
         <v>25</v>
       </c>
@@ -1889,7 +1907,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22">
         <v>30</v>
       </c>
@@ -1982,15 +2000,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -2006,8 +2029,11 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10</v>
       </c>
@@ -2024,8 +2050,20 @@
         <f>C3+D3+E3</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>40</v>
       </c>
@@ -2042,8 +2080,22 @@
         <f>C4+D4+E4</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <f>1000 * (I4 / 8) / ($F$3 +J4)</f>
+        <v>3.6764705882352939</v>
+      </c>
+      <c r="L4" s="9">
+        <f>1000 * (I4 / 8) / ($F$4 +J4)</f>
+        <v>3.6764705882352939</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>64</v>
       </c>
@@ -2068,378 +2120,698 @@
       <c r="J9">
         <v>1514</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>64</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>200</v>
+      </c>
+      <c r="Q9">
+        <v>300</v>
+      </c>
+      <c r="R9">
+        <v>600</v>
+      </c>
+      <c r="S9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + C$9)</f>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:J19" si="0">1000 * ($B10 / 8) / ($F$3 + C$9)</f>
         <v>1.4204545454545454</v>
       </c>
-      <c r="D10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + D$9)</f>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
         <v>1.2019230769230769</v>
       </c>
-      <c r="E10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + E$9)</f>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
         <v>1.0080645161290323</v>
       </c>
-      <c r="F10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + F$9)</f>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
         <v>0.5580357142857143</v>
       </c>
-      <c r="G10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + G$9)</f>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
         <v>0.38580246913580246</v>
       </c>
-      <c r="H10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + H$9)</f>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
         <v>0.20032051282051283</v>
       </c>
-      <c r="I10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + I$9)</f>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
         <v>0.1220703125</v>
       </c>
-      <c r="J10" s="12">
-        <f>1000 * ($B10 / 8) / ($F$3 + J$9)</f>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
         <v>8.1274382314694402E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9">
+        <f>1000 * ($L10 / 8) / ($F$4 + M$9)</f>
+        <v>7.1022727272727275</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" ref="N10:T17" si="1">1000 * ($L10 / 8) / ($F$4 + N$9)</f>
+        <v>6.009615384615385</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>5.040322580645161</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7901785714285716</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9290123456790123</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0016025641025641</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6103515625</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.40637191157347202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + C$9)</f>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
         <v>2.8409090909090908</v>
       </c>
-      <c r="D11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + D$9)</f>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
         <v>2.4038461538461537</v>
       </c>
-      <c r="E11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + E$9)</f>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
         <v>2.0161290322580645</v>
       </c>
-      <c r="F11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + F$9)</f>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
         <v>1.1160714285714286</v>
       </c>
-      <c r="G11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + G$9)</f>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
         <v>0.77160493827160492</v>
       </c>
-      <c r="H11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + H$9)</f>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
         <v>0.40064102564102566</v>
       </c>
-      <c r="I11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + I$9)</f>
+      <c r="I11" s="9">
+        <f t="shared" si="0"/>
         <v>0.244140625</v>
       </c>
-      <c r="J11" s="12">
-        <f>1000 * ($B11 / 8) / ($F$3 + J$9)</f>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
         <v>0.1625487646293888</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" ref="M11:M17" si="2">1000 * ($L11 / 8) / ($F$4 + M$9)</f>
+        <v>14.204545454545455</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="1"/>
+        <v>12.01923076923077</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>10.080645161290322</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5803571428571432</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8580246913580245</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0032051282051282</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="1"/>
+        <v>1.220703125</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81274382314694404</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + C$9)</f>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
         <v>4.2613636363636367</v>
       </c>
-      <c r="D12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + D$9)</f>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
         <v>3.6057692307692308</v>
       </c>
-      <c r="E12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + E$9)</f>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
         <v>3.024193548387097</v>
       </c>
-      <c r="F12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + F$9)</f>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
         <v>1.6741071428571428</v>
       </c>
-      <c r="G12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + G$9)</f>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
         <v>1.1574074074074074</v>
       </c>
-      <c r="H12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + H$9)</f>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
         <v>0.60096153846153844</v>
       </c>
-      <c r="I12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + I$9)</f>
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
         <v>0.3662109375</v>
       </c>
-      <c r="J12" s="12">
-        <f>1000 * ($B12 / 8) / ($F$3 + J$9)</f>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
         <v>0.24382314694408322</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>21.306818181818183</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="1"/>
+        <v>18.028846153846153</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>15.120967741935484</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="1"/>
+        <v>8.3705357142857135</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7870370370370372</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="1"/>
+        <v>3.0048076923076925</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8310546875</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2191157347204162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + C$9)</f>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
         <v>5.6818181818181817</v>
       </c>
-      <c r="D13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + D$9)</f>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
         <v>4.8076923076923075</v>
       </c>
-      <c r="E13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + E$9)</f>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
         <v>4.032258064516129</v>
       </c>
-      <c r="F13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + F$9)</f>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
         <v>2.2321428571428572</v>
       </c>
-      <c r="G13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + G$9)</f>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
         <v>1.5432098765432098</v>
       </c>
-      <c r="H13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + H$9)</f>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
         <v>0.80128205128205132</v>
       </c>
-      <c r="I13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + I$9)</f>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
         <v>0.48828125</v>
       </c>
-      <c r="J13" s="12">
-        <f>1000 * ($B13 / 8) / ($F$3 + J$9)</f>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
         <v>0.32509752925877761</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>28.40909090909091</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="1"/>
+        <v>24.03846153846154</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>20.161290322580644</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="1"/>
+        <v>11.160714285714286</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="1"/>
+        <v>7.716049382716049</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="1"/>
+        <v>4.0064102564102564</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="1"/>
+        <v>2.44140625</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6254876462938881</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + C$9)</f>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
         <v>7.1022727272727275</v>
       </c>
-      <c r="D14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + D$9)</f>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
         <v>6.009615384615385</v>
       </c>
-      <c r="E14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + E$9)</f>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
         <v>5.040322580645161</v>
       </c>
-      <c r="F14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + F$9)</f>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
         <v>2.7901785714285716</v>
       </c>
-      <c r="G14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + G$9)</f>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
         <v>1.9290123456790123</v>
       </c>
-      <c r="H14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + H$9)</f>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
         <v>1.0016025641025641</v>
       </c>
-      <c r="I14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + I$9)</f>
+      <c r="I14" s="9">
+        <f t="shared" si="0"/>
         <v>0.6103515625</v>
       </c>
-      <c r="J14" s="12">
-        <f>1000 * ($B14 / 8) / ($F$3 + J$9)</f>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
         <v>0.40637191157347202</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="2"/>
+        <v>35.511363636363633</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="1"/>
+        <v>30.048076923076923</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>25.201612903225808</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="1"/>
+        <v>13.950892857142858</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="1"/>
+        <v>9.6450617283950617</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="1"/>
+        <v>5.0080128205128203</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="1"/>
+        <v>3.0517578125</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0318595578673602</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + C$9)</f>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
         <v>8.5227272727272734</v>
       </c>
-      <c r="D15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + D$9)</f>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
         <v>7.2115384615384617</v>
       </c>
-      <c r="E15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + E$9)</f>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
         <v>6.0483870967741939</v>
       </c>
-      <c r="F15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + F$9)</f>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
         <v>3.3482142857142856</v>
       </c>
-      <c r="G15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + G$9)</f>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
         <v>2.3148148148148149</v>
       </c>
-      <c r="H15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + H$9)</f>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
         <v>1.2019230769230769</v>
       </c>
-      <c r="I15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + I$9)</f>
+      <c r="I15" s="9">
+        <f t="shared" si="0"/>
         <v>0.732421875</v>
       </c>
-      <c r="J15" s="12">
-        <f>1000 * ($B15 / 8) / ($F$3 + J$9)</f>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
         <v>0.48764629388816644</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="2"/>
+        <v>42.613636363636367</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="1"/>
+        <v>36.057692307692307</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>30.241935483870968</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="1"/>
+        <v>16.741071428571427</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="1"/>
+        <v>11.574074074074074</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="1"/>
+        <v>6.009615384615385</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="1"/>
+        <v>3.662109375</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4382314694408325</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + C$9)</f>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
         <v>9.9431818181818183</v>
       </c>
-      <c r="D16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + D$9)</f>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
         <v>8.4134615384615383</v>
       </c>
-      <c r="E16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + E$9)</f>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
         <v>7.056451612903226</v>
       </c>
-      <c r="F16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + F$9)</f>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
         <v>3.90625</v>
       </c>
-      <c r="G16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + G$9)</f>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
         <v>2.7006172839506171</v>
       </c>
-      <c r="H16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + H$9)</f>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
         <v>1.4022435897435896</v>
       </c>
-      <c r="I16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + I$9)</f>
+      <c r="I16" s="9">
+        <f t="shared" si="0"/>
         <v>0.8544921875</v>
       </c>
-      <c r="J16" s="12">
-        <f>1000 * ($B16 / 8) / ($F$3 + J$9)</f>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
         <v>0.56892067620286091</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="2"/>
+        <v>49.715909090909093</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="1"/>
+        <v>42.067307692307693</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>35.282258064516128</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="1"/>
+        <v>19.53125</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>13.503086419753087</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="1"/>
+        <v>7.0112179487179489</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2724609375</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="1"/>
+        <v>2.8446033810143043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + C$9)</f>
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
         <v>11.363636363636363</v>
       </c>
-      <c r="D17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + D$9)</f>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
         <v>9.615384615384615</v>
       </c>
-      <c r="E17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + E$9)</f>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
         <v>8.064516129032258</v>
       </c>
-      <c r="F17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + F$9)</f>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
         <v>4.4642857142857144</v>
       </c>
-      <c r="G17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + G$9)</f>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
         <v>3.0864197530864197</v>
       </c>
-      <c r="H17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + H$9)</f>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
         <v>1.6025641025641026</v>
       </c>
-      <c r="I17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + I$9)</f>
+      <c r="I17" s="9">
+        <f t="shared" si="0"/>
         <v>0.9765625</v>
       </c>
-      <c r="J17" s="12">
-        <f>1000 * ($B17 / 8) / ($F$3 + J$9)</f>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
         <v>0.65019505851755521</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
+        <v>56.81818181818182</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="1"/>
+        <v>48.07692307692308</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>40.322580645161288</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="1"/>
+        <v>22.321428571428573</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="1"/>
+        <v>15.432098765432098</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="1"/>
+        <v>8.0128205128205128</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="1"/>
+        <v>4.8828125</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="1"/>
+        <v>3.2509752925877762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>9</v>
       </c>
-      <c r="C18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + C$9)</f>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
         <v>12.784090909090908</v>
       </c>
-      <c r="D18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + D$9)</f>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
         <v>10.817307692307692</v>
       </c>
-      <c r="E18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + E$9)</f>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
         <v>9.07258064516129</v>
       </c>
-      <c r="F18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + F$9)</f>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
         <v>5.0223214285714288</v>
       </c>
-      <c r="G18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + G$9)</f>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
         <v>3.4722222222222223</v>
       </c>
-      <c r="H18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + H$9)</f>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
         <v>1.8028846153846154</v>
       </c>
-      <c r="I18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + I$9)</f>
+      <c r="I18" s="9">
+        <f t="shared" si="0"/>
         <v>1.0986328125</v>
       </c>
-      <c r="J18" s="12">
-        <f>1000 * ($B18 / 8) / ($F$3 + J$9)</f>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
         <v>0.73146944083224963</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + C$9)</f>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
         <v>14.204545454545455</v>
       </c>
-      <c r="D19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + D$9)</f>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
         <v>12.01923076923077</v>
       </c>
-      <c r="E19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + E$9)</f>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
         <v>10.080645161290322</v>
       </c>
-      <c r="F19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + F$9)</f>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
         <v>5.5803571428571432</v>
       </c>
-      <c r="G19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + G$9)</f>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
         <v>3.8580246913580245</v>
       </c>
-      <c r="H19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + H$9)</f>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
         <v>2.0032051282051282</v>
       </c>
-      <c r="I19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + I$9)</f>
+      <c r="I19" s="9">
+        <f t="shared" si="0"/>
         <v>1.220703125</v>
       </c>
-      <c r="J19" s="12">
-        <f>1000 * ($B19 / 8) / ($F$3 + J$9)</f>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
         <v>0.81274382314694404</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -2468,7 +2840,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -2480,68 +2852,71 @@
         <v>7.2727272727272725</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" ref="D24:J25" si="0" xml:space="preserve"> $A24 * D$23/ (D$23 + $F3)</f>
+        <f t="shared" ref="D24:J25" si="3" xml:space="preserve"> $A24 * D$23/ (D$23 + $F3)</f>
         <v>7.6923076923076925</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.064516129032258</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.9285714285714288</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.2592592592592595</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.615384615384615</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.765625</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8439531859557867</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="7">
         <f xml:space="preserve"> $A25 * C$23/ (C$23 + $F4)</f>
         <v>29.09090909090909</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30.76923076923077</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>32.258064516129032</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35.714285714285715</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37.037037037037038</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.46153846153846</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39.0625</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39.375812743823147</v>
       </c>
     </row>
@@ -2579,10 +2954,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
       <c r="I5" t="s">
         <v>32</v>
       </c>
